--- a/data/trans_camb/CoPsoQ_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R2-Habitat-trans_camb.xlsx
@@ -612,19 +612,19 @@
         <v>4.607151568302026</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-3.800036022017045</v>
+        <v>-3.800036022017028</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>4.079555970285631</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.146517268996053</v>
+        <v>5.146517268996059</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>4.145801299032059</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.3791390161278274</v>
+        <v>-0.379139016127833</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.859814330248162</v>
+        <v>-4.180350189381611</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.69025008728032</v>
+        <v>-18.01692748509041</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.55305270689885</v>
+        <v>-6.3510174901401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.877907485490636</v>
+        <v>-8.715697654125258</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.769821883590743</v>
+        <v>-2.970155859696142</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.986947992904799</v>
+        <v>-9.674619109534392</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.34763775219337</v>
+        <v>14.07358896583696</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.8115942351706</v>
+        <v>10.69369565296451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.18015590503615</v>
+        <v>14.86923925788647</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.41717069356908</v>
+        <v>18.19190815372345</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.18479578467888</v>
+        <v>11.50328265048731</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.852513879303105</v>
+        <v>9.773871227529348</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>0.09102206997181468</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.07507613751438377</v>
+        <v>-0.07507613751438344</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.09491526747481999</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.1197392722905428</v>
+        <v>0.1197392722905429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08678361501097961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.007936476458474024</v>
+        <v>-0.00793647645847414</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06856525606284714</v>
+        <v>-0.0754047400109225</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3267516138502199</v>
+        <v>-0.3394382892210525</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1345516945003949</v>
+        <v>-0.133190956560265</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.170051882571644</v>
+        <v>-0.189444087030016</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0365314521883072</v>
+        <v>-0.05831845306741163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2050531756524733</v>
+        <v>-0.19618146226905</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2972614671684122</v>
+        <v>0.2997403816451378</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2541197021797333</v>
+        <v>0.2245373537949108</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4086661561507425</v>
+        <v>0.4225245973423019</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4980973958068968</v>
+        <v>0.4795192122984635</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.253123782518385</v>
+        <v>0.2567296197575963</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.222190005410851</v>
+        <v>0.2142456669470791</v>
       </c>
     </row>
     <row r="10">
@@ -778,13 +778,13 @@
         <v>-0.1066241615254371</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-5.182269464930512</v>
+        <v>-5.1822694649305</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-3.416894477077892</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-12.39795612899014</v>
+        <v>-12.39795612899015</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.37216744585864</v>
+        <v>-13.05753154799388</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-27.45780500007404</v>
+        <v>-28.03468159902868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.208969492340227</v>
+        <v>-9.15464831325697</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-15.87798371652372</v>
+        <v>-16.0113225018593</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.774290961221183</v>
+        <v>-8.987090342867207</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-19.66738165410864</v>
+        <v>-19.12870627705325</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.626299263839997</v>
+        <v>1.064763635137665</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-7.569134204863199</v>
+        <v>-7.450143717895987</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.960125837538949</v>
+        <v>9.189618875517702</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.751650548351996</v>
+        <v>4.144251411509313</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.282109998565927</v>
+        <v>1.855122462245886</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-4.951653897884171</v>
+        <v>-4.586529493102192</v>
       </c>
     </row>
     <row r="13">
@@ -850,19 +850,19 @@
         <v>-0.09373867118388632</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.2922268462734566</v>
+        <v>-0.2922268462734565</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.001967010695402461</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.09560290386474971</v>
+        <v>-0.0956029038647495</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.05938845719506258</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.215486750267591</v>
+        <v>-0.2154867502675911</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2092233970434511</v>
+        <v>-0.206310555777093</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4471671277009208</v>
+        <v>-0.4505672156830342</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1438969101794998</v>
+        <v>-0.1548590341806261</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2708597738324248</v>
+        <v>-0.2760883028674325</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1442931829307408</v>
+        <v>-0.1489467081122871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3326891217005382</v>
+        <v>-0.3203263280222165</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02746116023783511</v>
+        <v>0.01979840892485609</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1342692646782506</v>
+        <v>-0.1342640145860073</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1606419213707767</v>
+        <v>0.1819948796836282</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.09561875588515839</v>
+        <v>0.08215505456468271</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04248155111769806</v>
+        <v>0.03416661834299958</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.09118745723774219</v>
+        <v>-0.0828464505204359</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>1.345404000412254</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-17.82586821045279</v>
+        <v>-17.82586821045278</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>2.026136548432766</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.443553336057398</v>
+        <v>-6.955143798460202</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-31.62697983320264</v>
+        <v>-31.76226258510893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.894169181729149</v>
+        <v>-7.63869164824999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-26.82906389753624</v>
+        <v>-25.06196301271626</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.344448498959943</v>
+        <v>-4.098206424118003</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-24.52072385987115</v>
+        <v>-24.74617265435246</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.535777199241098</v>
+        <v>8.572828488624772</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.943651919275666</v>
+        <v>-5.330982779028843</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.62665091428293</v>
+        <v>10.78955674115963</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-4.048444387724313</v>
+        <v>-1.994300195246095</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.708284420401992</v>
+        <v>7.961735029199008</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-5.525490519000583</v>
+        <v>-6.035055642836046</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>0.02251501910901417</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.2983117065729942</v>
+        <v>-0.2983117065729941</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.03241684943987498</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08856042440130898</v>
+        <v>-0.1077033247734855</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5055889508635225</v>
+        <v>-0.513391194272887</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1028701519136733</v>
+        <v>-0.113427931485223</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4000395773598797</v>
+        <v>-0.3814561722640304</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.06801125199003592</v>
+        <v>-0.06332428559163125</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3903807957937798</v>
+        <v>-0.3946709927175294</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1731506562088427</v>
+        <v>0.1531185241674221</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.07204804335980491</v>
+        <v>-0.09587420125732389</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2048027731849927</v>
+        <v>0.1867686618719143</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.06867191015108762</v>
+        <v>-0.03572548909005265</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1327115592660628</v>
+        <v>0.1408617511244407</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1003331662054951</v>
+        <v>-0.1019387847459695</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>-2.322989044755175</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-16.41023383874957</v>
+        <v>-16.41023383874958</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-7.132274165637109</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.69930735136245</v>
+        <v>-17.14463630572618</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-41.83361695252797</v>
+        <v>-42.06296492715399</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.39086605252261</v>
+        <v>-10.88750944058539</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-27.29120090776752</v>
+        <v>-26.9949427400383</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-12.24746102553146</v>
+        <v>-12.63429086882118</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-32.61964639826934</v>
+        <v>-32.62463733076445</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.405953178831195</v>
+        <v>-3.440069399268654</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-21.04720235891066</v>
+        <v>-22.38679843596668</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.078139907264095</v>
+        <v>5.701020082176895</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-6.082978226145817</v>
+        <v>-5.931856088401929</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.985393702593348</v>
+        <v>-1.811295932083152</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-17.56645742161163</v>
+        <v>-17.70197806375296</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>-0.04246439841277382</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.2999801954937274</v>
+        <v>-0.2999801954937276</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1225955083400403</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2735740417793727</v>
+        <v>-0.2673549984241161</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6855873386325761</v>
+        <v>-0.6708527567720327</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1791232671944474</v>
+        <v>-0.181964183746162</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4713868018561841</v>
+        <v>-0.4759556493305603</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.203312873839777</v>
+        <v>-0.2080537407573026</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5533963709730085</v>
+        <v>-0.5428793264616806</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.05868864385891973</v>
+        <v>-0.0598917816910794</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3655724523029179</v>
+        <v>-0.38614986828589</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1026873729980808</v>
+        <v>0.111153940879615</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.118288389089006</v>
+        <v>-0.1178570393249832</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.0361986565359287</v>
+        <v>-0.03314158198690466</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3163182588371988</v>
+        <v>-0.3111061886733664</v>
       </c>
     </row>
     <row r="28">
@@ -1258,13 +1258,13 @@
         <v>0.8298477705573459</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-8.239211413688357</v>
+        <v>-8.239211413688363</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-1.677147505142307</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-14.12154502993145</v>
+        <v>-14.12154502993144</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.055479504430121</v>
+        <v>-6.839684495663458</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-24.79427350572375</v>
+        <v>-24.23368594677924</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.888542743644757</v>
+        <v>-3.515379985297443</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-14.68964532636131</v>
+        <v>-13.53007683258175</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.911252252084349</v>
+        <v>-4.483505815804632</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-18.44993309731659</v>
+        <v>-17.93779617339913</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2883752933930088</v>
+        <v>0.6546052387816298</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-12.56402667782401</v>
+        <v>-12.34872033286951</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.311821280738668</v>
+        <v>5.628392623099194</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-2.780219168129322</v>
+        <v>-2.577365656624906</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.243597110107899</v>
+        <v>1.337234300485262</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-10.24885886843489</v>
+        <v>-9.961262715174961</v>
       </c>
     </row>
     <row r="31">
@@ -1330,19 +1330,19 @@
         <v>-0.05758101723920725</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.3183758216646825</v>
+        <v>-0.3183758216646824</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.01527380875757614</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.1516472585826128</v>
+        <v>-0.1516472585826129</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.02957825578442411</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.249048261817099</v>
+        <v>-0.2490482618170988</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1175790412205048</v>
+        <v>-0.1132422947562476</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4197461758547619</v>
+        <v>-0.4073571304473841</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.06779966299147135</v>
+        <v>-0.06239273115914028</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2586083908549655</v>
+        <v>-0.241069286939567</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.08322134105862188</v>
+        <v>-0.07690681030702681</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3171622431873322</v>
+        <v>-0.3137974886877652</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.005020926538946749</v>
+        <v>0.01163386576826247</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2194271226312442</v>
+        <v>-0.2164796818253255</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1012521272503888</v>
+        <v>0.1075619361955191</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.05163415930329423</v>
+        <v>-0.04813086795335494</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02256371355792044</v>
+        <v>0.02487361922579345</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1830870962130983</v>
+        <v>-0.1787838083094914</v>
       </c>
     </row>
     <row r="34">
